--- a/Templates Converted/lcrDetails.220909.xlsx
+++ b/Templates Converted/lcrDetails.220909.xlsx
@@ -743,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -885,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1051,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1027,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
@@ -1167,246 +1241,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>lcrDetails.220909Request</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Request creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lcrDetails.220909Request</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>settlementBIC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The relevant Settlement BIC</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>settlementDate</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The relevant business date</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>lcrReference</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The LCR Reference</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>OperationReference1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>REF0123456789111; REF0123456789000; REF0123456789123</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 D3:D1048576">
@@ -1489,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,1205 +1488,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>lcrDetails.220909Response</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lcrDetails.220909Response</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The identifier of the STEP2 Service</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>DCT</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>DCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>lcrReference</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The reference of the LCR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>OperationReference1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>REF0123456789111; REF0123456789000; REF0123456789123</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>businessDate</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The relevant business date</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DD</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2019-06-21; 2024-11-08; 9999-12-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>originalBulk</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The original bulk reference</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>BulkReference</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>TESTBULKREF135000000000000000000123; TESTBULKREF135000000000000000999999; TESTBULKREF135123400000000000000567</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>originalFileRef</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>The original input file reference</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>FileReference</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>16!c</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>TESTFILEREF01234; CGSTFILEREF01234; TESTFILEREF09999</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>bulkType</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>The bulk type</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>MessageType</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Pacs.003,Pacs.004,Pacs.007,Pacs.008</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Pacs.008; Pacs.003; Pacs.004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>instgAgt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>The STEP2 DP Instructing Agent.
-Corresponds to the Credit Party DP for Pacs.003 and Pacs.004 messages processed in SDD;
-Corresponds Debit Party for Pacs.004 and Pacs.008 in SCT and for Pacs.007 in SDD</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>instdAgt</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>The STEP2 DP Instructed Agent.
-Corresponds to the Debit Party DP for Pacs.003 and Pacs.004 messages processed in SDD;
-Corresponds Credit Party for Pacs.004 and Pacs.008 in SCT and for Pacs.007 in SDD.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>instgSttlmBIC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The Settlement BIC configured for the Instructing Agent</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>instdSttlmBIC</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>The Settlement BIC configured for the Instructed Agent</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>credPartyBIC</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>The Credit Party BIC
-This field corresponds to the Instructed Agent of the original instruction for Pacs.004 and Pacs.008</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>debPartyBIC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>The Debit Party BIC
-This field corresponds to the Instructing Agent of the original instruction for Pacs.004 and Pacs.008</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>BIC8</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>TESTIT88; BICDPA23; DPBICA88</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>lacInputFromS2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>The LAC running on the relevant STEP2 Service when the LCR has been put on the Request Input Queue</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>LacNumber</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>01; 02; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>cgsLacInput</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>The LAC running on CGS Module when the LCR has been retrieved from the Request Input Queue</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>LacNumber</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>01; 02; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>cgsLacOutput</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>The LAC running on CGS when the LCR has been put on the Response Output Queue</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>LacNumber</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>01; 02; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>The amount managed in the relevant LCR</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Amount1</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>999999999999999.99</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1000; 100000; 99999.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>numTransactions</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>The number of transactions included in the relevant LCR
-[maximum length 12n]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Number2</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>999999999999</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>100000; 999999999999; 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>lcrStatus</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>The LCR status</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>LcrStatus</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>STTLD,CANC,REVK,RJCT,QUEU</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>STTLD; CANC; REVK</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>s2LcrCreationTimestamp</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>The timestamp when the STEP2 Service created the LCR</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>cgsLcrStatusUpdate</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>The timestamp when the CGS updated positively/negatively the LCR status and sent back the outcome to the related STEP2 Service</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>dbrCrdFlag</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>lcrDetails</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Whether the LCR results in a debit or credit position
-C=Credit
-D=Debit</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Sign</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>C,D</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>C; D</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2968,6 +1659,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lcrDetails.220909Response</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lcrDetails.220909Response</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2981,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3118,173 +1846,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>errorResponse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>errorCode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The relevant error code</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>AX01; R01, XT92</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>errorCodeDescription</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The error code description</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Transaction rejected; File rejected; Schema error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>requestId</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The API Request Identification</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>REQID000011112222333445661234567890; REQID000011112222333445661234567891; REQID000011112222333445661234567892</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3428,6 +2017,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3441,7 +2067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3570,6 +2196,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -3583,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3712,6 +2375,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
